--- a/tests/Feature/config/example_simple_zero.xlsx
+++ b/tests/Feature/config/example_simple_zero.xlsx
@@ -897,7 +897,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>93277.0</v>
+        <v>-146723.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0.0</v>
+        <v>14900.0</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-356923.0</v>
+        <v>-371823.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>14900.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-356923.0</v>
+        <v>-371823.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>14900.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-356923.0</v>
+        <v>-371823.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>14900.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-356923.0</v>
+        <v>-371823.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-176923.0</v>
+        <v>-281823.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>104900.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-93800.0</v>
+        <v>-198700.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>92900.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-117800.0</v>
+        <v>-210700.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>92900.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-117800.0</v>
+        <v>-210700.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>92900.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-117800.0</v>
+        <v>-210700.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>92900.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-117800.0</v>
+        <v>-210700.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>92900.0</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-117800.0</v>
+        <v>-210700.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -7452,7 +7452,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -7657,7 +7657,9 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -7725,7 +7727,9 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -7793,7 +7797,9 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -7861,7 +7867,9 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -7929,7 +7937,9 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -7997,7 +8007,9 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -8065,7 +8077,9 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -8133,7 +8147,9 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -8201,7 +8217,9 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -8269,7 +8287,9 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -8337,7 +8357,9 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -8405,7 +8427,9 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -8473,7 +8497,9 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -8541,7 +8567,9 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -8609,7 +8637,9 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -8677,7 +8707,9 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -8745,7 +8777,9 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -8813,7 +8847,9 @@
       <c r="G23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -8881,7 +8917,9 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -8949,7 +8987,9 @@
       <c r="G25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -9017,7 +9057,9 @@
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -9085,7 +9127,9 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -9153,7 +9197,9 @@
       <c r="G28" s="1">
         <v>0.0</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -9221,7 +9267,9 @@
       <c r="G29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -9289,7 +9337,9 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -9357,7 +9407,9 @@
       <c r="G31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -9425,7 +9477,9 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -9493,7 +9547,9 @@
       <c r="G33" s="1">
         <v>0.0</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -9561,7 +9617,9 @@
       <c r="G34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -9629,7 +9687,9 @@
       <c r="G35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -9697,7 +9757,9 @@
       <c r="G36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -9765,7 +9827,9 @@
       <c r="G37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -9831,9 +9895,11 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
@@ -9863,7 +9929,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -9899,9 +9965,11 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="8"/>
@@ -9931,7 +9999,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -9968,9 +10036,11 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="12"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
       <c r="K40" s="11"/>
@@ -10000,7 +10070,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -10037,9 +10107,11 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
@@ -10069,7 +10141,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -10105,9 +10177,11 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
@@ -10137,7 +10211,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -10173,9 +10247,11 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
@@ -10205,7 +10281,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -10241,9 +10317,11 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="1"/>
@@ -10273,7 +10351,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -10309,9 +10387,11 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1"/>
@@ -10341,7 +10421,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -10377,9 +10457,11 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="1"/>
@@ -10409,7 +10491,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -10445,9 +10527,11 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
@@ -10477,7 +10561,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -10513,9 +10597,11 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1"/>
@@ -10545,7 +10631,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -10581,9 +10667,11 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1"/>
@@ -10613,7 +10701,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -10649,9 +10737,11 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
@@ -10681,7 +10771,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -10717,9 +10807,11 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="1"/>
@@ -10749,7 +10841,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -10785,9 +10877,11 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>240000.0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1"/>
@@ -10817,7 +10911,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -10853,9 +10947,11 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="14"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="14"/>
       <c r="K53" s="13"/>
@@ -10885,7 +10981,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -10922,9 +11018,11 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -10954,7 +11052,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -10990,9 +11088,11 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -11022,7 +11122,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -11058,9 +11158,11 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -11090,7 +11192,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -11126,9 +11228,11 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="14"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="13"/>
@@ -11158,7 +11262,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -11195,9 +11299,11 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -11227,7 +11333,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -11263,9 +11369,11 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -11295,7 +11403,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -11331,9 +11439,11 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -11363,7 +11473,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -11399,9 +11509,11 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -11431,7 +11543,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -11467,9 +11579,11 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -11499,7 +11613,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -11535,9 +11649,11 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -11567,7 +11683,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -11603,9 +11719,11 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -11635,7 +11753,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -11671,9 +11789,11 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -11703,7 +11823,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -11739,9 +11859,11 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -11771,7 +11893,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -11807,9 +11929,11 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>14900.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -11839,7 +11963,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-150200.0</v>
+        <v>-165100.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -11875,9 +11999,11 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>2900.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -11907,7 +12033,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-174200.0</v>
+        <v>-177100.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -11943,9 +12069,11 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>2900.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -11975,7 +12103,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-174200.0</v>
+        <v>-177100.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -12011,9 +12139,11 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>2900.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -12043,7 +12173,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-174200.0</v>
+        <v>-177100.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -12079,9 +12209,11 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>2900.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -12111,7 +12243,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-174200.0</v>
+        <v>-177100.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -12147,9 +12279,11 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>2900.0</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="16"/>
       <c r="K72" s="5"/>
@@ -12179,7 +12313,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-174200.0</v>
+        <v>-177100.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -17582,7 +17716,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.282" bestFit="true" customWidth="true" style="0"/>
@@ -17787,7 +17921,9 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -17855,7 +17991,9 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -17923,7 +18061,9 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -17991,7 +18131,9 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -18059,7 +18201,9 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -18127,7 +18271,9 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -18195,7 +18341,9 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -18263,7 +18411,9 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -18331,7 +18481,9 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -18399,7 +18551,9 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -18467,7 +18621,9 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -18535,7 +18691,9 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -18603,7 +18761,9 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -18671,7 +18831,9 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -18739,7 +18901,9 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -18807,7 +18971,9 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -18875,7 +19041,9 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -18943,7 +19111,9 @@
       <c r="G23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -19011,7 +19181,9 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -19079,7 +19251,9 @@
       <c r="G25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -19147,7 +19321,9 @@
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -19215,7 +19391,9 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -19283,7 +19461,9 @@
       <c r="G28" s="1">
         <v>0.0</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -19351,7 +19531,9 @@
       <c r="G29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -19419,7 +19601,9 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -19487,7 +19671,9 @@
       <c r="G31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -19555,7 +19741,9 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -19623,7 +19811,9 @@
       <c r="G33" s="1">
         <v>0.0</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -19691,7 +19881,9 @@
       <c r="G34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -19759,7 +19951,9 @@
       <c r="G35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -19827,7 +20021,9 @@
       <c r="G36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -19895,7 +20091,9 @@
       <c r="G37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -19963,7 +20161,9 @@
       <c r="G38" s="1">
         <v>0.0</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
@@ -20031,7 +20231,9 @@
       <c r="G39" s="8">
         <v>0.0</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="8"/>
@@ -20100,7 +20302,9 @@
       <c r="G40" s="11">
         <v>0.0</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
       <c r="K40" s="11"/>
@@ -20169,7 +20373,9 @@
       <c r="G41" s="1">
         <v>0.0</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
@@ -20237,7 +20443,9 @@
       <c r="G42" s="1">
         <v>0.0</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
@@ -20305,7 +20513,9 @@
       <c r="G43" s="1">
         <v>0.0</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
@@ -20373,7 +20583,9 @@
       <c r="G44" s="1">
         <v>0.0</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="1"/>
@@ -20441,7 +20653,9 @@
       <c r="G45" s="1">
         <v>0.0</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1"/>
@@ -20509,7 +20723,9 @@
       <c r="G46" s="1">
         <v>0.0</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="1"/>
@@ -20577,7 +20793,9 @@
       <c r="G47" s="1">
         <v>0.0</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
@@ -20645,7 +20863,9 @@
       <c r="G48" s="1">
         <v>0.0</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1"/>
@@ -20713,7 +20933,9 @@
       <c r="G49" s="1">
         <v>0.0</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1"/>
@@ -20781,7 +21003,9 @@
       <c r="G50" s="1">
         <v>0.0</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
@@ -20849,7 +21073,9 @@
       <c r="G51" s="1">
         <v>0.0</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="1"/>
@@ -20917,7 +21143,9 @@
       <c r="G52" s="1">
         <v>0.0</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1"/>
@@ -20985,7 +21213,9 @@
       <c r="G53" s="13">
         <v>0.0</v>
       </c>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="14"/>
       <c r="K53" s="13"/>
@@ -21054,7 +21284,9 @@
       <c r="G54" s="1">
         <v>0.0</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -21122,7 +21354,9 @@
       <c r="G55" s="1">
         <v>0.0</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -21190,7 +21424,9 @@
       <c r="G56" s="1">
         <v>0.0</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -21256,9 +21492,11 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="14"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="13"/>
@@ -21288,7 +21526,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -21327,9 +21565,11 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -21359,7 +21599,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -21398,9 +21638,11 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -21430,7 +21672,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -21469,9 +21711,11 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -21501,7 +21745,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -21540,9 +21784,11 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -21572,7 +21818,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -21611,9 +21857,11 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -21643,7 +21891,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -21682,9 +21930,11 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -21714,7 +21964,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -21753,9 +22003,11 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -21785,7 +22037,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -21824,9 +22076,11 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -21856,7 +22110,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -21895,9 +22149,11 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -21927,7 +22183,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -21966,9 +22222,11 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -21998,7 +22256,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -22037,9 +22295,11 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -22069,7 +22329,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -22108,9 +22368,11 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -22140,7 +22402,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -22179,9 +22441,11 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -22211,7 +22475,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -22250,9 +22514,11 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -22282,7 +22548,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -22321,9 +22587,11 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>90000.0</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="16"/>
       <c r="K72" s="5"/>
@@ -22353,7 +22621,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>180000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
